--- a/DebatchGenerateCode/ClassLibrary1/CodeTemplate.xlsx
+++ b/DebatchGenerateCode/ClassLibrary1/CodeTemplate.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86158\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository\TestSynCompany\DebatchGenerateCode\ClassLibrary1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C663F384-13F9-40CC-9304-FEEA54A0A3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88879B5-ABFE-4E58-925A-6F38505777AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="605" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ApplicationModel" sheetId="1" r:id="rId1"/>
-    <sheet name="webMVCStore" sheetId="2" r:id="rId2"/>
+    <sheet name="所谓文件路径" sheetId="15" r:id="rId1"/>
+    <sheet name="ApplicationModel" sheetId="1" r:id="rId2"/>
     <sheet name="ApplicationServiceInterface" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="ApplicationService" sheetId="4" r:id="rId4"/>
+    <sheet name="DomainMode" sheetId="5" r:id="rId5"/>
+    <sheet name="DomainRepos" sheetId="6" r:id="rId6"/>
+    <sheet name="InfrastructureMapping" sheetId="7" r:id="rId7"/>
+    <sheet name=".InfrastructureRepos" sheetId="8" r:id="rId8"/>
+    <sheet name="UserInterfaceModel" sheetId="9" r:id="rId9"/>
+    <sheet name="UserInterfaceStore" sheetId="2" r:id="rId10"/>
+    <sheet name="UserInterfaceViewModify" sheetId="10" r:id="rId11"/>
+    <sheet name="UserInterfaceViewFind" sheetId="11" r:id="rId12"/>
+    <sheet name="UserInterfaceViewToolbar" sheetId="12" r:id="rId13"/>
+    <sheet name="UserInterfaceViewController" sheetId="13" r:id="rId14"/>
+    <sheet name="UserInterfaceView" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="420">
   <si>
     <t>using System;</t>
   </si>
@@ -297,6 +308,1006 @@
   </si>
   <si>
     <t xml:space="preserve">        public IList&lt;Brand1Model&gt; GetExportData(string sort, string filter = "")</t>
+  </si>
+  <si>
+    <t>namespace Fusion.Context.BasicInfo.Domain.Models.Product.Brand1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class Brand1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string Brand1Code { get; private set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string Brand1Name { get; private set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public bool Active { get; private set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public string Remark { get; private set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public DateTime CreateTime { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public DateTime UpdateTime { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public byte[] RowVersion { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public void Modify(Brand1 brand1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (this.RowVersion.Except(brand1.RowVersion).Count() &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                throw new Exception("记录已被修改，请刷新！");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Brand1Name = brand1.Brand1Name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Active = brand1.Active;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Remark = brand1.Remark;</t>
+  </si>
+  <si>
+    <t>namespace Fusion.Context.BasicInfo.Domain.Repositories.Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public interface IBrand1Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        void Add(Brand1 brand1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        void Remove(string[] brand1Codes);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Brand1 GetBy(string brand1Code);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        IList&lt;Brand1&gt; GetBrand1s();</t>
+  </si>
+  <si>
+    <t>using FusionFramework.EntityFramework.Mapping.EntityMapping;</t>
+  </si>
+  <si>
+    <t>using FusionFramework.EntityFramework.Mapping.Strategy;</t>
+  </si>
+  <si>
+    <t>namespace Fusion.Infrastructure.Mapping.Logging.Models.Brand1s.Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [Export(typeof(IEntityMapping))]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class Brand1Map : EntityMappingBase&lt;Brand1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Import("default-t", AllowDefault = true)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public override IMappingStrategy TableNameMappingStrategy { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public override void Init()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.TablePrefix = "BI_";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            base.Init();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.HasKey(t =&gt; t.Brand1Code);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.Brand1Code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .HasMaxLength(32);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.Brand1Name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .HasMaxLength(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .IsRequired();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.Active)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(a =&gt; a.Remark)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .HasMaxLength(200);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.CreateTime)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .IsRequired();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.UpdateTime)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.Property(t =&gt; t.RowVersion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .HasMaxLength(50).IsConcurrencyToken();</t>
+  </si>
+  <si>
+    <t>using System.Linq.Dynamic;</t>
+  </si>
+  <si>
+    <t>using FusionFramework;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class Brand1Repository : IBrand1Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Import("default", AllowDefault = true)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public IDbContext DbContext { get; set; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public void Add(Brand1 brand1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DbContext.Set&lt;Brand1&gt;().Add(brand1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public void Remove(string[] brand1Codes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var brand1s = DbContext.Set&lt;Brand1&gt;()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .Where(t =&gt; brand1Codes.Contains(t.Brand1Code));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DbContext.Set&lt;Brand1&gt;().RemoveRange(brand1s);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public Brand1 GetBy(string brand1Code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var brand1 = DbContext.Set&lt;Brand1&gt;()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .FirstOrDefault(t =&gt; t.Brand1Code == brand1Code);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (brand1 == null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                throw new FusionException($"牌号编码:{brand1Code},不存在;请刷新！");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return brand1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public IList&lt;Brand1&gt; GetBrand1s()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var brand1s = DbContext.GetQueryable&lt;Brand1&gt;()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .Where(e =&gt; e.Active == true);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return brand1s.ToList();</t>
+  </si>
+  <si>
+    <t>namespace Fusion.Infrastructure.Repository.BasicInfo.Repositories.Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.model.product.brand1s.Brand1Model', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extend: 'Ext.data.Model',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    idProperty: 'Brand1Code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    requires: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Ext.data.proxy.Rest'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fields: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'Brand1Code', type: 'string' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'Brand1Name', type: 'string' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'Active', type: 'boolean' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'Remark', type: 'string' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'CreateTime', type: 'string' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        { name: 'UpdateTime', type: 'string' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    proxy: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'rest',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        api: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            read: 'Api/Brand1/Find',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            create: 'Api/Brand1/Add',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            update: 'Api/Brand1/Modify',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            destroy: 'Api/Brand1/Remove'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    getName: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return this.get('Brand1Name')</t>
+  </si>
+  <si>
+    <t>* 2017-03-16 Create by 吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 2019年7月11日10:13:37</t>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.view.product.brand1s.ModifyBrand1', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extend: 'Ext.form.Panel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    labelWidth: 65,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Brand1CodeLabel: '牌号编码',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Brand1NameLabel: '牌号名称',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    displayOrderLabel: '显示顺序',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ActiveLabel: '启用',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RemarkLabel: '备注',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    layout: 'fit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    border: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bodyPadding: '0 5 0 5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initComponent: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var me = this;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.items = [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            border: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            margin: '13 14 8 7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            defaults: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                xtype: 'textfield',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                labelAlign: 'right',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                labelWidth: me.labelWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            items: [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.Brand1CodeLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Brand1Code',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                readOnly: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.Brand1NameLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Brand1Name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                allowBlank: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                isFocused: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                listeners: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    'blur': function (e) { e.setValue(e.getValue().trim()) }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.activeLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                xtype: 'checkbox',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                checked: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                inputValue: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                uncheckedValue: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Active'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.remarkLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Remark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                xtype: 'textareafield'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.callParent();</t>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.view.product.brand1s.FindBrand1', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    brand1CodeLabel: '牌号编码',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    brand1NameLabel: '牌号名称',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    activeLabel: '启用',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    controller: 'brand1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bodyPadding: 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            margin: '13 14 8 0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                operator: 'Contains',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.brand1CodeLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Brand1Code'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                fieldLabel: me.brand1NameLabel,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Brand1Name'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                xtype: 'combobox',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                name: 'Active',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                operator: '==',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                editable: false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                store: { type: 'active' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                displayField: 'name',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                valueField: 'value',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    change: 'onComboChange'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                triggers: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    clear: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        cls: 'x-form-clear-trigger',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        handler: 'onComboClearTriggerClick',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        hidden: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t>* 2017-06-20 Create by 吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.view.product.brand1s.Brand1Toolbar', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extend: 'Fusion.ux.toolbar.Basic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    alias: 'widget.brand1Toolbar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var me = this,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            txtQuickSearch;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.callParent(arguments);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        txtQuickSearch = Ext.create('Fusion.ux.form.field.QuickSearchField', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            store: me.store,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            columns: me.columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.btnPrint.reportContract = 'Brand1Report';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.btnExport.exportUrl = "/api/Brand1/ExportExcel/";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.items = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnRefresh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnFind,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnAdd,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnModify,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnRemove,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnExport,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnPrint,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            me.btnHelp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            '-&gt;',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            txtQuickSearch,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ];</t>
+  </si>
+  <si>
+    <t>*  2017-05-09 Create by wu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.view.product.brand1s.Brand1Controller', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extend: 'Ext.app.ViewController',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    alias: 'controller.brand1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Ext.window.Toast'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    duplicateTip: '请先选择一条记录，然后再执行此操作',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onSelectionChange: function (model, selected, eOpts) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid, btnRemove, btnModify, viewModel;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        grid = me.getView();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        viewModel = grid.down('toolbar').viewModel;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        btnModify = grid.down('toolbar button#btnModify');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        btnRemove = grid.down('toolbar button#btnRemove');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (btnModify) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            btnModify[selected.length == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &amp;&amp; viewModel.get('functions.modify.IsAuthenticated')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ? 'enable'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                : 'disable']();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (btnRemove) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            btnRemove[selected.length &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &amp;&amp; viewModel.get('functions.remove.IsAuthenticated')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onRefreshClick: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var store = this.getView().getStore();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        store.reload();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onFindClick: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid, form, window;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form = Ext.create('Fusion.BasicInfo.view.product.brand1s.FindBrand1');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        window = Fusion.findWindow({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid: grid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            items: form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        window.show();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onAddClick: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            window, grid, form, selection;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form = Ext.create('Fusion.BasicInfo.view.product.brand1s.ModifyBrand1');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        selection = grid.getSelectionModel().getSelection();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        window = Fusion.addWindow({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onDuplicateClick: function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid, selection, form, window;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (selection.length != 1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Fusion.toast(me.duplicateTip + '!')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.loadRecord(selection[0]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.getForm().findField('Brand1Code').setValue('');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onModifyClick: function (button) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid, model, form, window;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        model = grid.getSelectionModel().getSelection()[0];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.getForm().findField('Brand1Code').readOnly = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        window = Fusion.modifyWindow({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.loadRecord(model);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onRemoveClick: function (button) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            grid = me.getView();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Fusion.Msg.remove(grid);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onComboClearTriggerClick: function (combo) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        combo.setValue();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    onComboChange: function (combo, newValue, oldValue, eOpts) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (newValue) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            combo.getTrigger('clear').show();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            combo.getTrigger('clear').hide();</t>
+  </si>
+  <si>
+    <t>Ext.define('Fusion.BasicInfo.view.product.brand1s.Brand1', {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    extend: 'Ext.grid.Panel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    alias: 'widget.brand1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fusion.BasicInfo.view.product.brand1s.Brand1Controller',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fusion.BasicInfo.view.product.brand1s.Brand1Toolbar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fusion.BasicInfo.store.product.brand1s.Brand1Store'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uses: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fusion.BasicInfo.view.product.brand1s.FindBrand1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'Fusion.BasicInfo.view.product.brand1s.ModifyBrand1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    moduleId: null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Brand1Code: '牌号编码',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Brand1Name: '牌号名称',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Active: '启用',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Remark: '备注',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CreateTime: '创建时间',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UpdateTime: '更新时间',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stateful: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stateId: 'state.Brand1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    selType: "checkboxmodel",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    multiColumnSort: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    selModel: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        injectCheckbox: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mode: "MULTI",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        checkOnly: false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    plugins: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'gridfilters',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'gridexporter'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    otherContent: [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'Modify',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path: 'extjs/fusion/classic/src/BasicInfo/view/product/brand1s/ModifyBrand1.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'Store',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path: 'extjs/fusion/classic/src/BasicInfo/store/product/brand1s/Brand1Store.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'Model',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path: 'extjs/fusion/classic/src/BasicInfo/model/product/brand1s/Brand1Model.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'Controller',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path: 'extjs/fusion/classic/src/BasicInfo/view/product/brand1s/Brand1Controller.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        type: 'Toolbar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        path: 'extjs/fusion/classic/src/BasicInfo/view/product/brand1s/Brand1Toolbar.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    listeners: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        selectionChange: 'onSelectionChange'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.columns = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { xtype: "rownumberer", align: 'center' },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { header: me.Brand1Code, dataIndex: 'Brand1Code', filter: 'string', width: 100, quickSearch: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { header: me.Brand1Name, dataIndex: 'Brand1Name', filter: 'string', width: 130, quickSearch: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                header: me.active, dataIndex: 'Active', filter: 'boolean', width: 60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                renderer: function (value) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (value) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        return '&lt;span class="x-fa fa-check fa-lg"&gt;&lt;/span&gt;';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { header: me.Remark, dataIndex: 'Remark', filter: 'string', width: 200 },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { header: me.CreateTime, dataIndex: 'CreateTime', filter: 'date', width: 130, xtype: 'datecolumn', format: 'Y/m/d H:i:s', hidden: true },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            { header: me.UpdateTime, dataIndex: 'UpdateTime', filter: 'date', width: 130, xtype: 'datecolumn', format: 'Y/m/d H:i:s', hidden: true }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.store = Ext.create('Fusion.BasicInfo.store.product.brand1s.Brand1Store');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        me.dockedItems = [{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            xtype: 'brand1Toolbar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            dock: 'top',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            moduleId: me.moduleId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            xtype: 'pagingtoolbar',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            displayInfo: true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            dock: 'bottom'</t>
+  </si>
+  <si>
+    <t>Fussion\src\Application\Fusion.Context.BasicInfo.Application\Services\Interfaces\Product\I_左括号_0_右括号_Service.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\Application\Fusion.Context.BasicInfo.Application\Services\Product\_左括号_0_右括号_Service.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\Domain\Fusion.Context.BasicInfo.Domain\Models\Product\_左括号_0_右括号_s\_左括号_0_右括号_.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\Domain\Fusion.Context.BasicInfo.Domain\Repositories\Product\I_左括号_0_右括号_Repository.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\Infrastructure\Fusion.Infrastructure.Mapping.BasicInfo\Models\Product\_左括号_0_右括号_s\_左括号_0_右括号_Map.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\Infrastructure\Fusion.Infrastructure.Repository.BasicInfo\Repositories\Product\_左括号_0_右括号_Repository.cs</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\model\Product\_左括号_0_右括号_s\_左括号_0_右括号_Model.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\store\Product\_左括号_0_右括号_s\_左括号_0_右括号_Store.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\view\Product\_左括号_0_右括号_s\_左括号_0_右括号_.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\view\Product\_左括号_0_右括号_s\_左括号_0_右括号_Controller.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\view\Product\_左括号_0_右括号_s\_左括号_0_右括号_Toolbar.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\view\Product\_左括号_0_右括号_s\Find_左括号_0_右括号_.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\User Interface\Fusion\Extjs\Fusion\classic\src\BasicInfo\view\Product\_左括号_0_右括号_s\Modify_左括号_0_右括号_.js</t>
+  </si>
+  <si>
+    <t>Fussion\src\Application\Fusion.Context.BasicInfo.Application\Models\Product\_左括号_0_右括号_s\_左括号_0_右括号_Model.cs</t>
+  </si>
+  <si>
+    <t>", cN);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = AppDomain.CurrentDomain.BaseDirectory + string.Format(@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -339,8 +1350,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -620,6 +1634,2075 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE188945-AC4D-439B-9E9A-F14BACA927C0}">
+  <dimension ref="A2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="114.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="78.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="120.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B84E47-33BC-430F-8F00-FC38A50BCE64}">
+  <dimension ref="D1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328F907F-0068-4606-A162-361E2631F471}">
+  <dimension ref="C2:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460BCF56-1BDA-47C6-B5AC-31A0E2CC27F2}">
+  <dimension ref="D2:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCB103F-5710-4638-A989-A91A33318AFB}">
+  <dimension ref="D3:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="63.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF0403D-E0F1-4C95-B30D-BEA25059250C}">
+  <dimension ref="D3:D132"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="60.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E135C0-9B0F-4D75-863B-B5CCAC80BEBF}">
+  <dimension ref="D3:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D17"/>
   <sheetViews>
@@ -812,86 +3895,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B84E47-33BC-430F-8F00-FC38A50BCE64}">
-  <dimension ref="D3:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="57.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407C60C4-1CF3-47D3-893A-F0961E717F3A}">
   <dimension ref="E3:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -984,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D8A6F1-5E79-4AFA-A9FF-1F6B7DB9323D}">
   <dimension ref="E4:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1487,4 +4496,810 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACF05EC-F3AA-4DCA-A5EF-6AF71A2846F7}">
+  <dimension ref="E3:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F11DC93-A72C-4F49-8BE1-12A9B957A2D8}">
+  <dimension ref="E3:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB93F0D-F515-4872-9CE4-AF5A53E756EC}">
+  <dimension ref="E2:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="68.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDECC5E-ED0C-4EAD-B0FD-B3DF0A990832}">
+  <dimension ref="E2:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="63.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5A326-582D-4747-B246-3B4A456F9961}">
+  <dimension ref="D2:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="57.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>